--- a/data/evaluation/evaluation_South_Summer_Beets.xlsx
+++ b/data/evaluation/evaluation_South_Summer_Beets.xlsx
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2136.684423774969</v>
+        <v>2163.984157719625</v>
       </c>
       <c r="C4" t="n">
-        <v>8575522.319536159</v>
+        <v>8910743.563892009</v>
       </c>
       <c r="D4" t="n">
-        <v>2928.399275975897</v>
+        <v>2985.08686035968</v>
       </c>
       <c r="E4" t="n">
-        <v>0.3352645227601906</v>
+        <v>0.3092796969332943</v>
       </c>
     </row>
     <row r="5">
